--- a/LOJA IMPORTADOS.xlsx
+++ b/LOJA IMPORTADOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelvin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BF753FF-E259-4F37-91D1-FFA66005A5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5DB8BAD-63B9-4A50-98B7-A534D1CD92AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FD28365F-9D81-475C-9D2F-5AD084614798}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="176">
   <si>
     <t>STATUS</t>
   </si>
@@ -432,9 +432,6 @@
   </si>
   <si>
     <t xml:space="preserve">  COMPRAS</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>QUANTIDADE</t>
@@ -2269,7 +2266,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</calculatedColumnFormula>
     </tableColumn>
@@ -2303,13 +2300,13 @@
     </tableColumn>
     <tableColumn id="10" xr3:uid="{1572E248-3775-4840-99F5-2DBF5A44F30D}" name="MEDIA CUSTO UNITARIO" dataDxfId="28" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -2355,7 +2352,7 @@
     <sortCondition descending="1" ref="D3:D63"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4CB8C61B-FF30-4731-8DBE-9BA1B5DDB5DC}" name="1" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{4CB8C61B-FF30-4731-8DBE-9BA1B5DDB5DC}" name="DATA" dataDxfId="18" totalsRowDxfId="17"/>
     <tableColumn id="2" xr3:uid="{49796BD0-21F6-462C-B6DF-A7CD06D61C88}" name="PRODUTO" dataDxfId="16" totalsRowDxfId="15"/>
     <tableColumn id="3" xr3:uid="{9469C020-CE6F-469B-98C7-D5AD9AB56CF6}" name="STATUS" dataDxfId="14" totalsRowDxfId="13"/>
     <tableColumn id="4" xr3:uid="{B7AFB4D3-DBCE-4020-BFA1-0EC8FE8EBB15}" name="QUANTIDADE" dataDxfId="12" totalsRowDxfId="11"/>
@@ -2678,8 +2675,8 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
@@ -2755,7 +2752,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>61.268749999999997</v>
@@ -2791,7 +2788,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>34.575000000000003</v>
@@ -2827,7 +2824,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>35.114999999999995</v>
@@ -2863,7 +2860,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>37.712500000000006</v>
@@ -2899,7 +2896,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>37.5</v>
@@ -2935,7 +2932,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>50</v>
@@ -2971,7 +2968,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>50</v>
@@ -3007,7 +3004,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>35.766666666666666</v>
@@ -3043,7 +3040,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>33.224999999999994</v>
@@ -3079,7 +3076,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>37.5</v>
@@ -3115,7 +3112,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>125</v>
@@ -3151,7 +3148,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>131.375</v>
@@ -3187,7 +3184,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>50</v>
@@ -3223,7 +3220,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>75</v>
@@ -3259,7 +3256,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>125</v>
@@ -3295,7 +3292,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>50</v>
@@ -3331,7 +3328,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>37.5</v>
@@ -3367,7 +3364,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>27.675000000000001</v>
@@ -3403,7 +3400,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>27.5</v>
@@ -3439,7 +3436,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>62.017499999999998</v>
@@ -3475,7 +3472,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>44.75</v>
@@ -3511,7 +3508,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>50</v>
@@ -3547,7 +3544,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>32.524999999999999</v>
@@ -3583,7 +3580,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>37.5</v>
@@ -3619,7 +3616,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>50</v>
@@ -3655,7 +3652,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>39.6875</v>
@@ -3691,7 +3688,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>75</v>
@@ -3727,7 +3724,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>55.381249999999994</v>
@@ -3763,7 +3760,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>81.337499999999991</v>
@@ -3799,7 +3796,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>50</v>
@@ -3835,7 +3832,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>36.008333333333333</v>
@@ -3871,7 +3868,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>79.533333333333331</v>
@@ -3907,7 +3904,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>36.075000000000003</v>
@@ -3943,7 +3940,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>52.987499999999997</v>
@@ -3979,7 +3976,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>37.979166666666671</v>
@@ -4015,7 +4012,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>50</v>
@@ -4051,7 +4048,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>67.475000000000009</v>
@@ -4087,7 +4084,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>28.275000000000002</v>
@@ -4123,7 +4120,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>50</v>
@@ -4159,7 +4156,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>87.5</v>
@@ -4195,7 +4192,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>87.5</v>
@@ -4231,7 +4228,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>125</v>
@@ -4267,7 +4264,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>125</v>
@@ -4303,7 +4300,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>44</v>
@@ -4339,7 +4336,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>139.14166666666665</v>
@@ -4375,7 +4372,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>50.762500000000003</v>
@@ -4411,7 +4408,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>50.737500000000004</v>
@@ -4447,7 +4444,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>50.35</v>
@@ -4483,7 +4480,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>70</v>
@@ -4519,7 +4516,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>50</v>
@@ -4555,7 +4552,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>50</v>
@@ -4591,7 +4588,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>50</v>
@@ -4627,7 +4624,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>37.5</v>
@@ -4663,7 +4660,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>50</v>
@@ -4699,7 +4696,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>50</v>
@@ -4735,7 +4732,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>37.5</v>
@@ -4771,7 +4768,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>37.5</v>
@@ -4807,7 +4804,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>50</v>
@@ -4843,7 +4840,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>100</v>
@@ -4879,7 +4876,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>50</v>
@@ -4915,7 +4912,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>125</v>
@@ -4951,7 +4948,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>125</v>
@@ -4987,7 +4984,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>125</v>
@@ -5023,7 +5020,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>125</v>
@@ -5059,7 +5056,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>125</v>
@@ -5095,7 +5092,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>125</v>
@@ -5131,7 +5128,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>125</v>
@@ -5167,7 +5164,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>125</v>
@@ -5203,7 +5200,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>125</v>
@@ -5239,7 +5236,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>87.5</v>
@@ -5275,7 +5272,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>38.362499999999997</v>
@@ -5311,7 +5308,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>82.100000000000009</v>
@@ -5347,7 +5344,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>50.599999999999994</v>
@@ -5383,7 +5380,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>52.474999999999994</v>
@@ -5419,7 +5416,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>125</v>
@@ -5455,7 +5452,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>50.7</v>
@@ -5491,7 +5488,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>125</v>
@@ -5527,7 +5524,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>90.600000000000009</v>
@@ -5563,7 +5560,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>100</v>
@@ -5599,7 +5596,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>25.325000000000003</v>
@@ -5635,7 +5632,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>29.050000000000004</v>
@@ -5671,7 +5668,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>28.824999999999999</v>
@@ -5707,7 +5704,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>79.599999999999994</v>
@@ -5743,7 +5740,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>144.60000000000002</v>
@@ -5779,7 +5776,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>65.125</v>
@@ -5815,7 +5812,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>29.075000000000003</v>
@@ -5851,7 +5848,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>36.274999999999999</v>
@@ -5887,7 +5884,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>50.75</v>
@@ -5923,7 +5920,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>29.1</v>
@@ -5959,7 +5956,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>32.574999999999996</v>
@@ -5995,7 +5992,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>39.799999999999997</v>
@@ -6031,7 +6028,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>36.274999999999999</v>
@@ -6067,7 +6064,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>90.525000000000006</v>
@@ -6103,7 +6100,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>28.95</v>
@@ -6139,7 +6136,7 @@
     Tabela3[CUSTO UNITÁRIO],
     Tabela3[PRODUTO], Tabela1[[#This Row],[PRODUTO]],
     Tabela3[STATUS], "ENTREGUE",
-    Tabela3[1], "&gt;="&amp;TODAY()-30
+    Tabela3[DATA], "&gt;="&amp;TODAY()-30
   ) * 2.5,
 "")</f>
         <v>87.025000000000006</v>
@@ -7092,7 +7089,7 @@
   <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
@@ -7186,13 +7183,13 @@
       </c>
       <c r="G4" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -7245,13 +7242,13 @@
       </c>
       <c r="G5" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -7306,13 +7303,13 @@
       </c>
       <c r="G6" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -7364,13 +7361,13 @@
       </c>
       <c r="G7" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -7426,13 +7423,13 @@
       </c>
       <c r="G8" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -7484,13 +7481,13 @@
       </c>
       <c r="G9" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -7542,13 +7539,13 @@
       </c>
       <c r="G10" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -7600,13 +7597,13 @@
       </c>
       <c r="G11" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -7658,13 +7655,13 @@
       </c>
       <c r="G12" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -7716,13 +7713,13 @@
       </c>
       <c r="G13" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -7775,13 +7772,13 @@
       </c>
       <c r="G14" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -7837,13 +7834,13 @@
       </c>
       <c r="G15" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -7895,13 +7892,13 @@
       </c>
       <c r="G16" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -7953,13 +7950,13 @@
       </c>
       <c r="G17" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -8011,13 +8008,13 @@
       </c>
       <c r="G18" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -8069,13 +8066,13 @@
       </c>
       <c r="G19" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -8127,13 +8124,13 @@
       </c>
       <c r="G20" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -8185,13 +8182,13 @@
       </c>
       <c r="G21" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -8243,13 +8240,13 @@
       </c>
       <c r="G22" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -8301,13 +8298,13 @@
       </c>
       <c r="G23" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -8359,13 +8356,13 @@
       </c>
       <c r="G24" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -8417,13 +8414,13 @@
       </c>
       <c r="G25" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -8475,13 +8472,13 @@
       </c>
       <c r="G26" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -8533,13 +8530,13 @@
       </c>
       <c r="G27" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -8593,13 +8590,13 @@
       </c>
       <c r="G28" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -8653,13 +8650,13 @@
       </c>
       <c r="G29" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -8711,13 +8708,13 @@
       </c>
       <c r="G30" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -8769,13 +8766,13 @@
       </c>
       <c r="G31" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -8829,13 +8826,13 @@
       </c>
       <c r="G32" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -8887,13 +8884,13 @@
       </c>
       <c r="G33" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -8945,13 +8942,13 @@
       </c>
       <c r="G34" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -9003,13 +9000,13 @@
       </c>
       <c r="G35" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -9061,13 +9058,13 @@
       </c>
       <c r="G36" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -9098,7 +9095,7 @@
         <v>116</v>
       </c>
       <c r="L36" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M36" s="27"/>
     </row>
@@ -9121,13 +9118,13 @@
       </c>
       <c r="G37" s="7">
         <f ca="1">IF(
-  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[1],"&gt;="&amp;TODAY()-120) &gt; 0,
+  COUNTIFS(Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],Tabela3[STATUS],"ENTREGUE",Tabela3[DATA],"&gt;="&amp;TODAY()-120) &gt; 0,
   IFERROR(
     AVERAGEIFS(
       Tabela3[CUSTO UNITÁRIO],
       Tabela3[PRODUTO],Tabela2[[#This Row],[PRODUTO]],
       Tabela3[STATUS],"ENTREGUE",
-      Tabela3[1],"&gt;="&amp;TODAY()-30
+      Tabela3[DATA],"&gt;="&amp;TODAY()-30
     ),
     0
   ),
@@ -9158,7 +9155,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M37" s="27"/>
     </row>
@@ -10162,8 +10159,8 @@
   <dimension ref="A1:H1002"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I147" sqref="I147"/>
+      <pane ySplit="3" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="1"/>
@@ -10189,7 +10186,7 @@
     <row r="2" spans="1:8"/>
     <row r="3" spans="1:8" ht="30" customHeight="1">
       <c r="B3" s="38" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>20</v>
@@ -10198,16 +10195,16 @@
         <v>0</v>
       </c>
       <c r="E3" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="G3" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="H3" s="39" t="s">
         <v>128</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" hidden="1" customHeight="1">
@@ -10218,7 +10215,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -10231,7 +10228,7 @@
         <v>110.16</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" hidden="1" customHeight="1">
@@ -10242,7 +10239,7 @@
         <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -10255,7 +10252,7 @@
         <v>28</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" hidden="1" customHeight="1">
@@ -10266,7 +10263,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -10279,7 +10276,7 @@
         <v>28</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" hidden="1" customHeight="1">
@@ -10290,7 +10287,7 @@
         <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -10303,7 +10300,7 @@
         <v>28</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" hidden="1" customHeight="1">
@@ -10314,7 +10311,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -10327,7 +10324,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" hidden="1" customHeight="1">
@@ -10338,7 +10335,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -10351,7 +10348,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" hidden="1" customHeight="1">
@@ -10362,7 +10359,7 @@
         <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -10375,7 +10372,7 @@
         <v>20</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" hidden="1" customHeight="1">
@@ -10386,7 +10383,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" s="5">
         <v>9</v>
@@ -10408,7 +10405,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" s="5">
         <v>4</v>
@@ -10430,7 +10427,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E13" s="5">
         <v>3</v>
@@ -10452,7 +10449,7 @@
         <v>66</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -10474,7 +10471,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="5">
         <v>6</v>
@@ -10496,7 +10493,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E16" s="5">
         <v>3</v>
@@ -10518,7 +10515,7 @@
         <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17" s="5">
         <v>2</v>
@@ -10540,7 +10537,7 @@
         <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" s="5">
         <v>15</v>
@@ -10562,7 +10559,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="5">
         <v>4</v>
@@ -10584,7 +10581,7 @@
         <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E20" s="5">
         <v>5</v>
@@ -10606,7 +10603,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="5">
         <v>4</v>
@@ -10628,7 +10625,7 @@
         <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -10650,7 +10647,7 @@
         <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E23" s="5">
         <v>2</v>
@@ -10672,7 +10669,7 @@
         <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E24" s="5">
         <v>2</v>
@@ -10694,7 +10691,7 @@
         <v>58</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
@@ -10716,7 +10713,7 @@
         <v>60</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
@@ -10738,7 +10735,7 @@
         <v>59</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -10760,7 +10757,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
@@ -10782,7 +10779,7 @@
         <v>62</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
@@ -10804,7 +10801,7 @@
         <v>63</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
@@ -10826,7 +10823,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
@@ -10848,7 +10845,7 @@
         <v>11</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" s="5">
         <v>3</v>
@@ -10870,7 +10867,7 @@
         <v>61</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -10892,7 +10889,7 @@
         <v>65</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
@@ -10914,7 +10911,7 @@
         <v>33</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E35" s="5">
         <v>5</v>
@@ -10936,7 +10933,7 @@
         <v>64</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E36" s="5">
         <v>1</v>
@@ -10958,7 +10955,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E37" s="5">
         <v>4</v>
@@ -10980,7 +10977,7 @@
         <v>46</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E38" s="5">
         <v>2</v>
@@ -11002,7 +10999,7 @@
         <v>47</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E39" s="5">
         <v>2</v>
@@ -11024,7 +11021,7 @@
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E40" s="5">
         <v>3</v>
@@ -11046,7 +11043,7 @@
         <v>85</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -11068,7 +11065,7 @@
         <v>69</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E42" s="5">
         <v>1</v>
@@ -11090,7 +11087,7 @@
         <v>70</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E43" s="5">
         <v>1</v>
@@ -11112,7 +11109,7 @@
         <v>75</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E44" s="5">
         <v>1</v>
@@ -11134,7 +11131,7 @@
         <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E45" s="5">
         <v>4</v>
@@ -11156,7 +11153,7 @@
         <v>50</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E46" s="5">
         <v>2</v>
@@ -11178,7 +11175,7 @@
         <v>74</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E47" s="5">
         <v>1</v>
@@ -11200,7 +11197,7 @@
         <v>71</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E48" s="5">
         <v>1</v>
@@ -11222,7 +11219,7 @@
         <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E49" s="5">
         <v>1</v>
@@ -11244,7 +11241,7 @@
         <v>76</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E50" s="5">
         <v>1</v>
@@ -11266,7 +11263,7 @@
         <v>72</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E51" s="5">
         <v>1</v>
@@ -11288,7 +11285,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E52" s="5">
         <v>1</v>
@@ -11310,7 +11307,7 @@
         <v>78</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E53" s="5">
         <v>1</v>
@@ -11332,7 +11329,7 @@
         <v>51</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E54" s="5">
         <v>1</v>
@@ -11354,7 +11351,7 @@
         <v>77</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E55" s="5">
         <v>1</v>
@@ -11376,7 +11373,7 @@
         <v>36</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E56" s="5">
         <v>5</v>
@@ -11398,7 +11395,7 @@
         <v>48</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E57" s="5">
         <v>2</v>
@@ -11420,7 +11417,7 @@
         <v>49</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E58" s="5">
         <v>2</v>
@@ -11442,7 +11439,7 @@
         <v>31</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E59" s="5">
         <v>8</v>
@@ -11464,7 +11461,7 @@
         <v>68</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E60" s="5">
         <v>1</v>
@@ -11486,7 +11483,7 @@
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E61" s="5">
         <v>25</v>
@@ -11508,7 +11505,7 @@
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E62" s="5">
         <v>21</v>
@@ -11530,7 +11527,7 @@
         <v>73</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E63" s="5">
         <v>1</v>
@@ -11552,7 +11549,7 @@
         <v>38</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E64" s="5">
         <v>1</v>
@@ -11574,7 +11571,7 @@
         <v>52</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E65" s="5">
         <v>2</v>
@@ -11587,7 +11584,7 @@
         <v>35.200000000000003</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -11598,7 +11595,7 @@
         <v>40</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E66" s="5">
         <v>1</v>
@@ -11611,7 +11608,7 @@
         <v>54.89</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -11622,7 +11619,7 @@
         <v>42</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E67" s="5">
         <v>1</v>
@@ -11635,7 +11632,7 @@
         <v>25.04</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -11646,7 +11643,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E68" s="5">
         <v>1</v>
@@ -11659,7 +11656,7 @@
         <v>38.71</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -11670,7 +11667,7 @@
         <v>79</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E69" s="5">
         <v>1</v>
@@ -11683,7 +11680,7 @@
         <v>19.09</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -11694,7 +11691,7 @@
         <v>39</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E70" s="5">
         <v>1</v>
@@ -11707,7 +11704,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -11718,7 +11715,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E71" s="5">
         <v>2</v>
@@ -11731,7 +11728,7 @@
         <v>35.200000000000003</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -11742,7 +11739,7 @@
         <v>80</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E72" s="5">
         <v>1</v>
@@ -11755,7 +11752,7 @@
         <v>32.840000000000003</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -11766,7 +11763,7 @@
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E73" s="5">
         <v>3</v>
@@ -11779,7 +11776,7 @@
         <v>36.33</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -11790,7 +11787,7 @@
         <v>39</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E74" s="5">
         <v>2</v>
@@ -11803,7 +11800,7 @@
         <v>24.22</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -11814,7 +11811,7 @@
         <v>3</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E75" s="5">
         <v>1</v>
@@ -11827,7 +11824,7 @@
         <v>12.11</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -11838,7 +11835,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E76" s="5">
         <v>1</v>
@@ -11851,7 +11848,7 @@
         <v>13.21</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -11862,7 +11859,7 @@
         <v>35</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E77" s="5">
         <v>1</v>
@@ -11875,7 +11872,7 @@
         <v>16.75</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -11886,7 +11883,7 @@
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E78" s="5">
         <v>1</v>
@@ -11899,7 +11896,7 @@
         <v>14.47</v>
       </c>
       <c r="H78" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -11910,7 +11907,7 @@
         <v>29</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E79" s="5">
         <v>1</v>
@@ -11923,7 +11920,7 @@
         <v>58.08</v>
       </c>
       <c r="H79" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -11934,7 +11931,7 @@
         <v>53</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E80" s="5">
         <v>1</v>
@@ -11947,7 +11944,7 @@
         <v>72.41</v>
       </c>
       <c r="H80" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -11958,7 +11955,7 @@
         <v>4</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E81" s="5">
         <v>1</v>
@@ -11971,7 +11968,7 @@
         <v>10.17</v>
       </c>
       <c r="H81" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -11982,7 +11979,7 @@
         <v>54</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E82" s="5">
         <v>1</v>
@@ -11995,7 +11992,7 @@
         <v>20.329999999999998</v>
       </c>
       <c r="H82" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -12006,7 +12003,7 @@
         <v>29</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E83" s="5">
         <v>1</v>
@@ -12019,7 +12016,7 @@
         <v>20.329999999999998</v>
       </c>
       <c r="H83" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -12030,7 +12027,7 @@
         <v>53</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E84" s="5">
         <v>1</v>
@@ -12043,7 +12040,7 @@
         <v>45.56</v>
       </c>
       <c r="H84" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -12054,7 +12051,7 @@
         <v>5</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E85" s="5">
         <v>1</v>
@@ -12067,7 +12064,7 @@
         <v>62.2</v>
       </c>
       <c r="H85" s="47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -12078,7 +12075,7 @@
         <v>81</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E86" s="5">
         <v>1</v>
@@ -12091,7 +12088,7 @@
         <v>20.239999999999998</v>
       </c>
       <c r="H86" s="47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -12102,7 +12099,7 @@
         <v>40</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E87" s="5">
         <v>1</v>
@@ -12115,7 +12112,7 @@
         <v>20.239999999999998</v>
       </c>
       <c r="H87" s="47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -12126,7 +12123,7 @@
         <v>55</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E88" s="5">
         <v>1</v>
@@ -12139,7 +12136,7 @@
         <v>20.309999999999999</v>
       </c>
       <c r="H88" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -12150,7 +12147,7 @@
         <v>29</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E89" s="5">
         <v>1</v>
@@ -12163,7 +12160,7 @@
         <v>20.309999999999999</v>
       </c>
       <c r="H89" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -12174,7 +12171,7 @@
         <v>40</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E90" s="5">
         <v>1</v>
@@ -12187,7 +12184,7 @@
         <v>20.309999999999999</v>
       </c>
       <c r="H90" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -12198,7 +12195,7 @@
         <v>30</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E91" s="5">
         <v>10</v>
@@ -12211,7 +12208,7 @@
         <v>179</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -12222,7 +12219,7 @@
         <v>37</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E92" s="5">
         <v>1</v>
@@ -12235,7 +12232,7 @@
         <v>20.32</v>
       </c>
       <c r="H92" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -12246,7 +12243,7 @@
         <v>29</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E93" s="5">
         <v>2</v>
@@ -12259,7 +12256,7 @@
         <v>40.5</v>
       </c>
       <c r="H93" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -12270,7 +12267,7 @@
         <v>32</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E94" s="5">
         <v>6</v>
@@ -12283,7 +12280,7 @@
         <v>78.06</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -12294,7 +12291,7 @@
         <v>29</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E95" s="5">
         <v>1</v>
@@ -12307,7 +12304,7 @@
         <v>20.29</v>
       </c>
       <c r="H95" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -12318,7 +12315,7 @@
         <v>82</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E96" s="5">
         <v>1</v>
@@ -12331,7 +12328,7 @@
         <v>20.99</v>
       </c>
       <c r="H96" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -12342,7 +12339,7 @@
         <v>37</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E97" s="5">
         <v>1</v>
@@ -12355,7 +12352,7 @@
         <v>20.29</v>
       </c>
       <c r="H97" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -12366,7 +12363,7 @@
         <v>41</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E98" s="5">
         <v>3</v>
@@ -12379,7 +12376,7 @@
         <v>43.29</v>
       </c>
       <c r="H98" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -12390,7 +12387,7 @@
         <v>83</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E99" s="5">
         <v>1</v>
@@ -12403,7 +12400,7 @@
         <v>50</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="2:8" ht="30" hidden="1" customHeight="1">
@@ -12414,7 +12411,7 @@
         <v>10</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E100" s="5">
         <v>1</v>
@@ -12427,7 +12424,7 @@
         <v>11.07</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="2:8" ht="30" customHeight="1">
@@ -12438,7 +12435,7 @@
         <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E101" s="5">
         <v>10</v>
@@ -12451,7 +12448,7 @@
         <v>126.6</v>
       </c>
       <c r="H101" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="2:8" ht="30" customHeight="1">
@@ -12462,7 +12459,7 @@
         <v>6</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E102" s="5">
         <v>1</v>
@@ -12475,7 +12472,7 @@
         <v>15.52</v>
       </c>
       <c r="H102" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="2:8" ht="30" customHeight="1">
@@ -12486,7 +12483,7 @@
         <v>54</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E103" s="5">
         <v>1</v>
@@ -12499,7 +12496,7 @@
         <v>20.28</v>
       </c>
       <c r="H103" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="2:8" ht="30" customHeight="1">
@@ -12510,7 +12507,7 @@
         <v>84</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E104" s="5">
         <v>1</v>
@@ -12523,7 +12520,7 @@
         <v>20.28</v>
       </c>
       <c r="H104" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="2:8" ht="30" customHeight="1">
@@ -12534,7 +12531,7 @@
         <v>29</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E105" s="5">
         <v>1</v>
@@ -12547,7 +12544,7 @@
         <v>20.28</v>
       </c>
       <c r="H105" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="30" customHeight="1">
@@ -12558,7 +12555,7 @@
         <v>55</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E106" s="5">
         <v>1</v>
@@ -12571,7 +12568,7 @@
         <v>20.28</v>
       </c>
       <c r="H106" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="2:8" ht="30" customHeight="1">
@@ -12582,7 +12579,7 @@
         <v>56</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E107" s="5">
         <v>1</v>
@@ -12595,7 +12592,7 @@
         <v>20.28</v>
       </c>
       <c r="H107" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="2:8" ht="30" customHeight="1">
@@ -12606,7 +12603,7 @@
         <v>29</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E108" s="5">
         <v>1</v>
@@ -12619,7 +12616,7 @@
         <v>20.28</v>
       </c>
       <c r="H108" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="2:8" ht="30" customHeight="1">
@@ -12630,7 +12627,7 @@
         <v>11</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E109" s="5">
         <v>3</v>
@@ -12643,7 +12640,7 @@
         <v>31.98</v>
       </c>
       <c r="H109" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="2:8" ht="30" customHeight="1">
@@ -12654,7 +12651,7 @@
         <v>29</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E110" s="5">
         <v>2</v>
@@ -12667,7 +12664,7 @@
         <v>40.5</v>
       </c>
       <c r="H110" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="2:8" ht="30" customHeight="1">
@@ -12678,7 +12675,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E111" s="5">
         <v>1</v>
@@ -12691,7 +12688,7 @@
         <v>41.94</v>
       </c>
       <c r="H111" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112" spans="2:8" ht="30" customHeight="1">
@@ -12702,7 +12699,7 @@
         <v>43</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E112" s="5">
         <v>1</v>
@@ -12715,7 +12712,7 @@
         <v>8.49</v>
       </c>
       <c r="H112" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="2:8" ht="30" customHeight="1">
@@ -12726,7 +12723,7 @@
         <v>42</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E113" s="5">
         <v>1</v>
@@ -12739,7 +12736,7 @@
         <v>17.350000000000001</v>
       </c>
       <c r="H113" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" spans="2:8" ht="30" customHeight="1">
@@ -12750,7 +12747,7 @@
         <v>43</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E114" s="5">
         <v>1</v>
@@ -12763,7 +12760,7 @@
         <v>17.350000000000001</v>
       </c>
       <c r="H114" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="2:8" ht="30" customHeight="1">
@@ -12774,7 +12771,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E115" s="5">
         <v>1</v>
@@ -12787,7 +12784,7 @@
         <v>53.51</v>
       </c>
       <c r="H115" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" spans="2:8" ht="30" customHeight="1">
@@ -12798,7 +12795,7 @@
         <v>86</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E116" s="5">
         <v>1</v>
@@ -12811,7 +12808,7 @@
         <v>36.24</v>
       </c>
       <c r="H116" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117" spans="2:8" ht="30" customHeight="1">
@@ -12822,7 +12819,7 @@
         <v>87</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E117" s="5">
         <v>1</v>
@@ -12835,7 +12832,7 @@
         <v>40</v>
       </c>
       <c r="H117" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118" spans="2:8" ht="30" customHeight="1">
@@ -12846,7 +12843,7 @@
         <v>46</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E118" s="5">
         <v>1</v>
@@ -12859,7 +12856,7 @@
         <v>8.49</v>
       </c>
       <c r="H118" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119" spans="2:8" ht="30" customHeight="1">
@@ -12870,7 +12867,7 @@
         <v>88</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E119" s="5">
         <v>1</v>
@@ -12883,7 +12880,7 @@
         <v>10.130000000000001</v>
       </c>
       <c r="H119" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120" spans="2:8" ht="30" customHeight="1">
@@ -12894,7 +12891,7 @@
         <v>89</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E120" s="5">
         <v>1</v>
@@ -12907,7 +12904,7 @@
         <v>11.6</v>
       </c>
       <c r="H120" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121" spans="2:8" ht="30" customHeight="1">
@@ -12918,7 +12915,7 @@
         <v>79</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E121" s="5">
         <v>1</v>
@@ -12931,7 +12928,7 @@
         <v>11.6</v>
       </c>
       <c r="H121" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122" spans="2:8" ht="30" customHeight="1">
@@ -12942,7 +12939,7 @@
         <v>11</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E122" s="5">
         <v>3</v>
@@ -12955,7 +12952,7 @@
         <v>40.980000000000004</v>
       </c>
       <c r="H122" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123" spans="2:8" ht="30" customHeight="1">
@@ -12966,7 +12963,7 @@
         <v>39</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E123" s="5">
         <v>1</v>
@@ -12979,7 +12976,7 @@
         <v>13.5</v>
       </c>
       <c r="H123" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" spans="2:8" ht="30" customHeight="1">
@@ -12990,7 +12987,7 @@
         <v>46</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E124" s="5">
         <v>1</v>
@@ -13003,7 +13000,7 @@
         <v>8.39</v>
       </c>
       <c r="H124" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125" spans="2:8" ht="30" customHeight="1">
@@ -13014,7 +13011,7 @@
         <v>90</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E125" s="5">
         <v>3</v>
@@ -13027,7 +13024,7 @@
         <v>34.589999999999996</v>
       </c>
       <c r="H125" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="2:8" ht="30" customHeight="1">
@@ -13038,7 +13035,7 @@
         <v>91</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E126" s="5">
         <v>1</v>
@@ -13051,7 +13048,7 @@
         <v>31.84</v>
       </c>
       <c r="H126" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" spans="2:8" ht="30" customHeight="1">
@@ -13062,7 +13059,7 @@
         <v>45</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E127" s="5">
         <v>1</v>
@@ -13075,7 +13072,7 @@
         <v>28.98</v>
       </c>
       <c r="H127" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" spans="2:8" ht="30" customHeight="1">
@@ -13086,7 +13083,7 @@
         <v>92</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E128" s="5">
         <v>1</v>
@@ -13099,7 +13096,7 @@
         <v>57.84</v>
       </c>
       <c r="H128" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129" spans="2:8" ht="30" customHeight="1">
@@ -13110,7 +13107,7 @@
         <v>93</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E129" s="5">
         <v>1</v>
@@ -13123,7 +13120,7 @@
         <v>26.05</v>
       </c>
       <c r="H129" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130" spans="2:8" ht="30" customHeight="1">
@@ -13134,7 +13131,7 @@
         <v>43</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E130" s="5">
         <v>1</v>
@@ -13147,7 +13144,7 @@
         <v>17.41</v>
       </c>
       <c r="H130" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131" spans="2:8" ht="30" customHeight="1">
@@ -13158,7 +13155,7 @@
         <v>94</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E131" s="5">
         <v>1</v>
@@ -13171,7 +13168,7 @@
         <v>11.63</v>
       </c>
       <c r="H131" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132" spans="2:8" ht="30" customHeight="1">
@@ -13182,7 +13179,7 @@
         <v>95</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E132" s="5">
         <v>1</v>
@@ -13195,7 +13192,7 @@
         <v>14.51</v>
       </c>
       <c r="H132" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133" spans="2:8" ht="30" customHeight="1">
@@ -13206,7 +13203,7 @@
         <v>43</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E133" s="5">
         <v>1</v>
@@ -13219,7 +13216,7 @@
         <v>17.43</v>
       </c>
       <c r="H133" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134" spans="2:8" ht="30" customHeight="1">
@@ -13230,7 +13227,7 @@
         <v>96</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E134" s="5">
         <v>1</v>
@@ -13243,7 +13240,7 @@
         <v>20.3</v>
       </c>
       <c r="H134" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135" spans="2:8" ht="30" customHeight="1">
@@ -13254,7 +13251,7 @@
         <v>98</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E135" s="5">
         <v>1</v>
@@ -13267,7 +13264,7 @@
         <v>13.03</v>
       </c>
       <c r="H135" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136" spans="2:8" ht="30" customHeight="1">
@@ -13278,7 +13275,7 @@
         <v>97</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E136" s="5">
         <v>1</v>
@@ -13291,7 +13288,7 @@
         <v>11.64</v>
       </c>
       <c r="H136" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137" spans="2:8" ht="30" customHeight="1">
@@ -13302,7 +13299,7 @@
         <v>99</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E137" s="5">
         <v>1</v>
@@ -13315,7 +13312,7 @@
         <v>15.92</v>
       </c>
       <c r="H137" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="138" spans="2:8" ht="30" customHeight="1">
@@ -13326,7 +13323,7 @@
         <v>100</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E138" s="5">
         <v>1</v>
@@ -13339,7 +13336,7 @@
         <v>15.92</v>
       </c>
       <c r="H138" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139" spans="2:8" ht="30" customHeight="1">
@@ -13350,7 +13347,7 @@
         <v>43</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E139" s="5">
         <v>1</v>
@@ -13363,7 +13360,7 @@
         <v>17.43</v>
       </c>
       <c r="H139" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140" spans="2:8" ht="30" customHeight="1">
@@ -13374,7 +13371,7 @@
         <v>89</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E140" s="5">
         <v>1</v>
@@ -13387,7 +13384,7 @@
         <v>11.64</v>
       </c>
       <c r="H140" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141" spans="2:8" ht="30" customHeight="1">
@@ -13398,7 +13395,7 @@
         <v>11</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E141" s="5">
         <v>1</v>
@@ -13411,7 +13408,7 @@
         <v>11.64</v>
       </c>
       <c r="H141" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="142" spans="2:8" ht="30" customHeight="1">
@@ -13422,7 +13419,7 @@
         <v>100</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E142" s="5">
         <v>1</v>
@@ -13435,7 +13432,7 @@
         <v>13.1</v>
       </c>
       <c r="H142" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="2:8" ht="30" customHeight="1">
@@ -13446,7 +13443,7 @@
         <v>101</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E143" s="5">
         <v>1</v>
@@ -13459,7 +13456,7 @@
         <v>36.21</v>
       </c>
       <c r="H143" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="144" spans="2:8" ht="30" customHeight="1">
@@ -13470,7 +13467,7 @@
         <v>102</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E144" s="5">
         <v>1</v>
@@ -13483,7 +13480,7 @@
         <v>11.58</v>
       </c>
       <c r="H144" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="2:8" ht="30" customHeight="1">
@@ -13494,7 +13491,7 @@
         <v>103</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E145" s="5">
         <v>1</v>
@@ -13507,7 +13504,7 @@
         <v>34.81</v>
       </c>
       <c r="H145" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" spans="2:8" ht="30" customHeight="1">
@@ -13518,7 +13515,7 @@
         <v>43</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E146" s="5">
         <v>2</v>
@@ -13531,7 +13528,7 @@
         <v>26.08</v>
       </c>
       <c r="H146" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="2:8" ht="30" customHeight="1">
@@ -13542,7 +13539,7 @@
         <v>46</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E147" s="5">
         <v>1</v>
@@ -13555,7 +13552,7 @@
         <v>8.36</v>
       </c>
       <c r="H147" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="2:8" ht="30" customHeight="1">
@@ -13566,7 +13563,7 @@
         <v>11</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E148" s="5">
         <v>2</v>
@@ -13579,7 +13576,7 @@
         <v>18.54</v>
       </c>
       <c r="H148" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149" spans="2:8" ht="30" customHeight="1">
@@ -13590,7 +13587,7 @@
         <v>53</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E149" s="5">
         <v>1</v>
@@ -13603,7 +13600,7 @@
         <v>49</v>
       </c>
       <c r="H149" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150" spans="2:8" ht="30" customHeight="1">
@@ -13614,7 +13611,7 @@
         <v>6</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E150" s="5">
         <v>2</v>
@@ -13627,7 +13624,7 @@
         <v>37.6</v>
       </c>
       <c r="H150" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="2:8" ht="30" customHeight="1"/>
@@ -14491,7 +14488,7 @@
       <formula>"ENVIADO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C150" xr:uid="{547ABE89-C03D-47DA-B469-0575E9B6C5F3}">
       <formula1>INDIRECT("Tabela1[PRODUTO]")</formula1>
     </dataValidation>
